--- a/data/trans_orig/P6702-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6702-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C817CC99-34AC-4148-8AE4-C0A1540538D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6406143C-D97F-4891-8D04-A943B1AB8634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E4C3D5CA-3445-40D1-BE34-8EB6C139B160}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{324A3CFD-EE84-41A7-8724-A2F0132BEADD}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="744">
   <si>
     <t>Población según si la distribución de tareas es irregular y provoca que se le acumule el trabajo en 2012 (Tasa respuesta: 33,92%)</t>
   </si>
@@ -76,2218 +76,2200 @@
     <t>24,49%</t>
   </si>
   <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
   </si>
   <si>
     <t>26,7%</t>
   </si>
   <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>Solo alguna vez</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>39,65%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>36,92%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>35,84%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si la distribución de tareas es irregular y provoca que se le acumule el trabajo en 2015 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>54,79%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>43,12%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>41,71%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
     <t>10,53%</t>
   </si>
   <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>Solo alguna vez</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>34,89%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>54,5%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>16,05%</t>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
   </si>
   <si>
     <t>8,17%</t>
   </si>
   <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>Población según si la distribución de tareas es irregular y provoca que se le acumule el trabajo en 2023 (Tasa respuesta: 10,36%)</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
     <t>27,03%</t>
   </si>
   <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
   </si>
   <si>
     <t>11,12%</t>
   </si>
   <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
   </si>
   <si>
     <t>26,1%</t>
   </si>
   <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>18,09%</t>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
   </si>
   <si>
     <t>14,3%</t>
   </si>
   <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si la distribución de tareas es irregular y provoca que se le acumule el trabajo en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>28,69%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>41,86%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
   </si>
   <si>
     <t>23,0%</t>
   </si>
   <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>36,12%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>Población según si la distribución de tareas es irregular y provoca que se le acumule el trabajo en 2023 (Tasa respuesta: 10,36%)</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>35,4%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>38,07%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>44,32%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>55,44%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>21,12%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
   </si>
   <si>
     <t>5,37%</t>
   </si>
   <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
   </si>
   <si>
     <t>6,64%</t>
   </si>
   <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
   </si>
 </sst>
 </file>
@@ -2699,7 +2681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E09282-72E0-4538-9DD1-060D7E18C396}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C6AB79-9933-4157-8E3E-08BB44485FCC}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3215,10 +3197,10 @@
         <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3233,13 +3215,13 @@
         <v>59415</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>45</v>
@@ -3248,13 +3230,13 @@
         <v>48001</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>103</v>
@@ -3263,13 +3245,13 @@
         <v>107416</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3284,13 +3266,13 @@
         <v>50457</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -3299,13 +3281,13 @@
         <v>20534</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>68</v>
@@ -3314,13 +3296,13 @@
         <v>70991</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3335,13 +3317,13 @@
         <v>16471</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -3350,13 +3332,13 @@
         <v>12175</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>27</v>
@@ -3365,13 +3347,13 @@
         <v>28646</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3427,7 +3409,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3439,10 +3421,10 @@
         <v>75181</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>108</v>
@@ -3628,7 +3610,7 @@
         <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>141</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3643,13 +3625,13 @@
         <v>55935</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>27</v>
@@ -3658,13 +3640,13 @@
         <v>29861</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>146</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="M20" s="7">
         <v>77</v>
@@ -3673,13 +3655,13 @@
         <v>85796</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3735,7 +3717,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3747,13 +3729,13 @@
         <v>41803</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>42</v>
@@ -3762,13 +3744,13 @@
         <v>46288</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>82</v>
@@ -3777,13 +3759,13 @@
         <v>88091</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3798,13 +3780,13 @@
         <v>47501</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>101</v>
+        <v>159</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>25</v>
@@ -3813,13 +3795,13 @@
         <v>27476</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>65</v>
@@ -3828,13 +3810,13 @@
         <v>74977</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3849,13 +3831,13 @@
         <v>102657</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>55</v>
@@ -3864,13 +3846,13 @@
         <v>60091</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>147</v>
@@ -3879,13 +3861,13 @@
         <v>162749</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3900,13 +3882,13 @@
         <v>65021</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H25" s="7">
         <v>34</v>
@@ -3915,13 +3897,13 @@
         <v>38945</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>96</v>
@@ -3930,13 +3912,13 @@
         <v>103966</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3951,13 +3933,13 @@
         <v>65407</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>35</v>
@@ -3966,10 +3948,10 @@
         <v>40340</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>190</v>
@@ -4055,13 +4037,13 @@
         <v>75734</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="H28" s="7">
         <v>70</v>
@@ -4070,13 +4052,13 @@
         <v>73683</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="M28" s="7">
         <v>140</v>
@@ -4085,13 +4067,13 @@
         <v>149417</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4106,13 +4088,13 @@
         <v>62388</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H29" s="7">
         <v>42</v>
@@ -4121,13 +4103,13 @@
         <v>43060</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M29" s="7">
         <v>103</v>
@@ -4136,13 +4118,13 @@
         <v>105448</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,13 +4139,13 @@
         <v>162348</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="H30" s="7">
         <v>101</v>
@@ -4172,13 +4154,13 @@
         <v>105098</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M30" s="7">
         <v>259</v>
@@ -4187,13 +4169,13 @@
         <v>267446</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4208,13 +4190,13 @@
         <v>79974</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H31" s="7">
         <v>54</v>
@@ -4223,13 +4205,13 @@
         <v>59009</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M31" s="7">
         <v>132</v>
@@ -4238,13 +4220,13 @@
         <v>138983</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4259,13 +4241,13 @@
         <v>38245</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>231</v>
-      </c>
       <c r="G32" s="7" t="s">
-        <v>232</v>
+        <v>27</v>
       </c>
       <c r="H32" s="7">
         <v>21</v>
@@ -4274,13 +4256,13 @@
         <v>20652</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="M32" s="7">
         <v>58</v>
@@ -4289,13 +4271,13 @@
         <v>58897</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4363,13 +4345,13 @@
         <v>247447</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>239</v>
-      </c>
       <c r="G34" s="7" t="s">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="H34" s="7">
         <v>194</v>
@@ -4378,13 +4360,13 @@
         <v>211094</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>241</v>
+        <v>196</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M34" s="7">
         <v>426</v>
@@ -4393,13 +4375,13 @@
         <v>458541</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>211</v>
+        <v>242</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4414,13 +4396,13 @@
         <v>212644</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>248</v>
+        <v>123</v>
       </c>
       <c r="H35" s="7">
         <v>139</v>
@@ -4429,13 +4411,13 @@
         <v>150724</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="M35" s="7">
         <v>334</v>
@@ -4444,13 +4426,13 @@
         <v>363369</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4465,13 +4447,13 @@
         <v>486671</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H36" s="7">
         <v>289</v>
@@ -4480,13 +4462,13 @@
         <v>309136</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M36" s="7">
         <v>749</v>
@@ -4495,13 +4477,13 @@
         <v>795807</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>262</v>
+        <v>38</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4516,13 +4498,13 @@
         <v>293440</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="H37" s="7">
         <v>156</v>
@@ -4531,13 +4513,13 @@
         <v>171347</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="M37" s="7">
         <v>439</v>
@@ -4546,13 +4528,13 @@
         <v>464787</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4567,13 +4549,13 @@
         <v>178277</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>275</v>
+        <v>195</v>
       </c>
       <c r="H38" s="7">
         <v>96</v>
@@ -4582,13 +4564,13 @@
         <v>104240</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="M38" s="7">
         <v>259</v>
@@ -4597,13 +4579,13 @@
         <v>282517</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4659,7 +4641,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -4680,7 +4662,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1ACEEB6-7AE6-4E50-9C82-BE843ACD277E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12C8B45-5B40-44A7-AEEF-952CA89BD280}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4697,7 +4679,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4804,13 +4786,13 @@
         <v>7263</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -4819,13 +4801,13 @@
         <v>10631</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -4834,13 +4816,13 @@
         <v>17893</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>291</v>
+        <v>221</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4855,13 +4837,13 @@
         <v>7313</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -4870,13 +4852,13 @@
         <v>3773</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -4885,13 +4867,13 @@
         <v>11086</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4906,13 +4888,13 @@
         <v>12784</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -4921,13 +4903,13 @@
         <v>5298</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="M6" s="7">
         <v>19</v>
@@ -4936,13 +4918,13 @@
         <v>18082</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4957,13 +4939,13 @@
         <v>10891</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -4972,13 +4954,13 @@
         <v>8555</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="M7" s="7">
         <v>20</v>
@@ -4987,13 +4969,13 @@
         <v>19446</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5008,13 +4990,13 @@
         <v>5770</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>159</v>
+        <v>312</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>320</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -5023,13 +5005,13 @@
         <v>1635</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>322</v>
+        <v>262</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -5038,13 +5020,13 @@
         <v>7405</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>323</v>
+        <v>147</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5112,13 +5094,13 @@
         <v>34776</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>327</v>
+        <v>99</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -5127,13 +5109,13 @@
         <v>33826</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="M10" s="7">
         <v>65</v>
@@ -5142,13 +5124,13 @@
         <v>68603</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5163,13 +5145,13 @@
         <v>35111</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="H11" s="7">
         <v>29</v>
@@ -5178,13 +5160,13 @@
         <v>27363</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>339</v>
+        <v>164</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="M11" s="7">
         <v>63</v>
@@ -5193,13 +5175,13 @@
         <v>62474</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5214,13 +5196,13 @@
         <v>79568</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="H12" s="7">
         <v>48</v>
@@ -5229,13 +5211,13 @@
         <v>46410</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="M12" s="7">
         <v>123</v>
@@ -5244,13 +5226,13 @@
         <v>125978</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,13 +5247,13 @@
         <v>41657</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>354</v>
+        <v>224</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -5280,13 +5262,13 @@
         <v>23718</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
@@ -5295,13 +5277,13 @@
         <v>65375</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5316,13 +5298,13 @@
         <v>8157</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -5331,13 +5313,13 @@
         <v>6160</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -5346,13 +5328,13 @@
         <v>14317</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,7 +5390,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5420,13 +5402,13 @@
         <v>61084</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>370</v>
+        <v>358</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>371</v>
+        <v>359</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>372</v>
+        <v>163</v>
       </c>
       <c r="H16" s="7">
         <v>56</v>
@@ -5435,13 +5417,13 @@
         <v>57484</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="M16" s="7">
         <v>108</v>
@@ -5450,13 +5432,13 @@
         <v>118567</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>377</v>
+        <v>364</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>378</v>
+        <v>365</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5471,13 +5453,13 @@
         <v>78985</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="H17" s="7">
         <v>42</v>
@@ -5486,13 +5468,13 @@
         <v>42395</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>150</v>
+        <v>347</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="M17" s="7">
         <v>115</v>
@@ -5501,13 +5483,13 @@
         <v>121381</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5522,13 +5504,13 @@
         <v>151228</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="H18" s="7">
         <v>99</v>
@@ -5537,13 +5519,13 @@
         <v>101772</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="M18" s="7">
         <v>236</v>
@@ -5552,13 +5534,13 @@
         <v>253000</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5573,13 +5555,13 @@
         <v>81512</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>397</v>
+        <v>246</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>337</v>
+        <v>384</v>
       </c>
       <c r="H19" s="7">
         <v>50</v>
@@ -5588,13 +5570,13 @@
         <v>52789</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="M19" s="7">
         <v>123</v>
@@ -5603,13 +5585,13 @@
         <v>134301</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5624,13 +5606,13 @@
         <v>41232</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="H20" s="7">
         <v>20</v>
@@ -5639,13 +5621,13 @@
         <v>19331</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="M20" s="7">
         <v>57</v>
@@ -5654,13 +5636,13 @@
         <v>60563</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>233</v>
+        <v>398</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5716,7 +5698,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5728,13 +5710,13 @@
         <v>50241</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="H22" s="7">
         <v>35</v>
@@ -5743,13 +5725,13 @@
         <v>35448</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>417</v>
+        <v>166</v>
       </c>
       <c r="M22" s="7">
         <v>80</v>
@@ -5758,13 +5740,13 @@
         <v>85690</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5779,13 +5761,13 @@
         <v>58578</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>192</v>
+        <v>408</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="H23" s="7">
         <v>41</v>
@@ -5794,13 +5776,13 @@
         <v>42241</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="M23" s="7">
         <v>91</v>
@@ -5809,13 +5791,13 @@
         <v>100820</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,13 +5812,13 @@
         <v>99179</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>70</v>
+        <v>418</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="H24" s="7">
         <v>91</v>
@@ -5845,13 +5827,13 @@
         <v>90008</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
       <c r="M24" s="7">
         <v>184</v>
@@ -5860,13 +5842,13 @@
         <v>189186</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>306</v>
+        <v>425</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5881,13 +5863,13 @@
         <v>105321</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="H25" s="7">
         <v>66</v>
@@ -5896,13 +5878,13 @@
         <v>70065</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>439</v>
+        <v>190</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>440</v>
+        <v>316</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="M25" s="7">
         <v>159</v>
@@ -5911,13 +5893,13 @@
         <v>175386</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>442</v>
+        <v>83</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>443</v>
+        <v>346</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5932,13 +5914,13 @@
         <v>50501</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="H26" s="7">
         <v>32</v>
@@ -5947,13 +5929,13 @@
         <v>32796</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="M26" s="7">
         <v>78</v>
@@ -5962,13 +5944,13 @@
         <v>83296</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6036,13 +6018,13 @@
         <v>79749</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>456</v>
+        <v>55</v>
       </c>
       <c r="H28" s="7">
         <v>61</v>
@@ -6051,13 +6033,13 @@
         <v>66847</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>457</v>
+        <v>410</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="M28" s="7">
         <v>136</v>
@@ -6066,13 +6048,13 @@
         <v>146596</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>223</v>
+        <v>445</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6087,13 +6069,13 @@
         <v>76786</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>462</v>
+        <v>184</v>
       </c>
       <c r="H29" s="7">
         <v>56</v>
@@ -6102,13 +6084,13 @@
         <v>57776</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>197</v>
+        <v>450</v>
       </c>
       <c r="M29" s="7">
         <v>131</v>
@@ -6117,13 +6099,13 @@
         <v>134562</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>466</v>
+        <v>246</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6138,13 +6120,13 @@
         <v>133763</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="H30" s="7">
         <v>97</v>
@@ -6153,13 +6135,13 @@
         <v>101328</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="M30" s="7">
         <v>230</v>
@@ -6168,13 +6150,13 @@
         <v>235092</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6189,13 +6171,13 @@
         <v>68619</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="H31" s="7">
         <v>59</v>
@@ -6204,13 +6186,13 @@
         <v>62825</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="M31" s="7">
         <v>127</v>
@@ -6219,13 +6201,13 @@
         <v>131444</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6240,13 +6222,13 @@
         <v>42254</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>15</v>
+        <v>469</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>339</v>
+        <v>471</v>
       </c>
       <c r="H32" s="7">
         <v>34</v>
@@ -6255,13 +6237,13 @@
         <v>36698</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>118</v>
+        <v>474</v>
       </c>
       <c r="M32" s="7">
         <v>76</v>
@@ -6270,13 +6252,13 @@
         <v>78952</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>161</v>
+        <v>475</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6344,13 +6326,13 @@
         <v>233113</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>491</v>
+        <v>260</v>
       </c>
       <c r="H34" s="7">
         <v>197</v>
@@ -6359,13 +6341,13 @@
         <v>204236</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>492</v>
+        <v>140</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>493</v>
+        <v>93</v>
       </c>
       <c r="M34" s="7">
         <v>407</v>
@@ -6374,13 +6356,13 @@
         <v>437349</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>18</v>
+        <v>481</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>495</v>
+        <v>482</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6395,13 +6377,13 @@
         <v>256773</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>496</v>
+        <v>320</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>498</v>
+        <v>120</v>
       </c>
       <c r="H35" s="7">
         <v>172</v>
@@ -6410,13 +6392,13 @@
         <v>173548</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>342</v>
+        <v>485</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="M35" s="7">
         <v>411</v>
@@ -6425,13 +6407,13 @@
         <v>430321</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>168</v>
+        <v>487</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>501</v>
+        <v>488</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>502</v>
+        <v>416</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6446,13 +6428,13 @@
         <v>476522</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="H36" s="7">
         <v>341</v>
@@ -6461,13 +6443,13 @@
         <v>344816</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="M36" s="7">
         <v>792</v>
@@ -6476,13 +6458,13 @@
         <v>821337</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>510</v>
+        <v>419</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6497,13 +6479,13 @@
         <v>308000</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="H37" s="7">
         <v>209</v>
@@ -6512,13 +6494,13 @@
         <v>217952</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>269</v>
+        <v>500</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>491</v>
+        <v>260</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>515</v>
+        <v>29</v>
       </c>
       <c r="M37" s="7">
         <v>494</v>
@@ -6527,13 +6509,13 @@
         <v>525952</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>517</v>
+        <v>265</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6548,13 +6530,13 @@
         <v>147914</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>448</v>
+        <v>505</v>
       </c>
       <c r="H38" s="7">
         <v>94</v>
@@ -6563,13 +6545,13 @@
         <v>96620</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>523</v>
+        <v>472</v>
       </c>
       <c r="M38" s="7">
         <v>232</v>
@@ -6578,13 +6560,13 @@
         <v>244534</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6640,7 +6622,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -6661,7 +6643,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E03A61-1AFE-4433-A5D6-5B47527D4DFF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C1E5EDB-AD10-4A82-BE9E-BBF42754D551}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6678,7 +6660,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6785,13 +6767,13 @@
         <v>3470</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>530</v>
+        <v>514</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -6800,13 +6782,13 @@
         <v>5224</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -6815,13 +6797,13 @@
         <v>8694</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6836,13 +6818,13 @@
         <v>8846</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -6851,13 +6833,13 @@
         <v>1403</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -6866,13 +6848,13 @@
         <v>10249</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6887,13 +6869,13 @@
         <v>3069</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>162</v>
+        <v>530</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -6902,13 +6884,13 @@
         <v>971</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>357</v>
+        <v>533</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -6917,13 +6899,13 @@
         <v>4041</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>317</v>
+        <v>535</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6941,10 +6923,10 @@
         <v>22</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6956,10 +6938,10 @@
         <v>22</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6971,10 +6953,10 @@
         <v>22</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6992,10 +6974,10 @@
         <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -7004,13 +6986,13 @@
         <v>805</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>553</v>
+        <v>404</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -7019,13 +7001,13 @@
         <v>805</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7093,13 +7075,13 @@
         <v>20133</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>482</v>
+        <v>544</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="H10" s="7">
         <v>24</v>
@@ -7108,13 +7090,13 @@
         <v>16704</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="M10" s="7">
         <v>39</v>
@@ -7123,13 +7105,13 @@
         <v>36837</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>563</v>
+        <v>550</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>508</v>
+        <v>551</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7144,13 +7126,13 @@
         <v>10784</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>72</v>
+        <v>554</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
@@ -7159,13 +7141,13 @@
         <v>7124</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
@@ -7174,13 +7156,13 @@
         <v>17908</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>571</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7195,13 +7177,13 @@
         <v>20360</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="H12" s="7">
         <v>33</v>
@@ -7210,13 +7192,13 @@
         <v>20533</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="M12" s="7">
         <v>54</v>
@@ -7225,13 +7207,13 @@
         <v>40894</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7246,13 +7228,13 @@
         <v>17286</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>328</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>581</v>
+        <v>312</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>174</v>
+        <v>569</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -7261,13 +7243,13 @@
         <v>16631</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -7276,13 +7258,13 @@
         <v>33917</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>587</v>
+        <v>575</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7297,13 +7279,13 @@
         <v>5984</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>588</v>
+        <v>576</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>589</v>
+        <v>577</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>590</v>
+        <v>578</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -7312,13 +7294,13 @@
         <v>4355</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>591</v>
+        <v>579</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>592</v>
+        <v>580</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>593</v>
+        <v>581</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -7327,13 +7309,13 @@
         <v>10339</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7389,7 +7371,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7401,13 +7383,13 @@
         <v>81708</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>597</v>
+        <v>422</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>598</v>
+        <v>25</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -7416,13 +7398,13 @@
         <v>22887</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>601</v>
+        <v>99</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
       <c r="M16" s="7">
         <v>56</v>
@@ -7431,13 +7413,13 @@
         <v>104595</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7452,13 +7434,13 @@
         <v>13765</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -7467,13 +7449,13 @@
         <v>18132</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>610</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="M17" s="7">
         <v>35</v>
@@ -7482,13 +7464,13 @@
         <v>31897</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>613</v>
+        <v>597</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7503,13 +7485,13 @@
         <v>71973</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>616</v>
+        <v>600</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>617</v>
+        <v>601</v>
       </c>
       <c r="H18" s="7">
         <v>59</v>
@@ -7518,13 +7500,13 @@
         <v>41608</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="M18" s="7">
         <v>122</v>
@@ -7533,13 +7515,13 @@
         <v>113581</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7554,13 +7536,13 @@
         <v>34393</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>624</v>
+        <v>95</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>625</v>
+        <v>608</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>626</v>
+        <v>197</v>
       </c>
       <c r="H19" s="7">
         <v>37</v>
@@ -7569,13 +7551,13 @@
         <v>29305</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>627</v>
+        <v>609</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>628</v>
+        <v>610</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
       <c r="M19" s="7">
         <v>68</v>
@@ -7584,13 +7566,13 @@
         <v>63698</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>630</v>
+        <v>612</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>631</v>
+        <v>613</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>198</v>
+        <v>614</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7605,13 +7587,13 @@
         <v>10953</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>632</v>
+        <v>615</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>633</v>
+        <v>616</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>634</v>
+        <v>165</v>
       </c>
       <c r="H20" s="7">
         <v>19</v>
@@ -7620,13 +7602,13 @@
         <v>15201</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>635</v>
+        <v>617</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>636</v>
+        <v>618</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>637</v>
+        <v>619</v>
       </c>
       <c r="M20" s="7">
         <v>27</v>
@@ -7635,13 +7617,13 @@
         <v>26154</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>363</v>
+        <v>618</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>367</v>
+        <v>620</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>638</v>
+        <v>621</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7697,7 +7679,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7709,13 +7691,13 @@
         <v>17860</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>639</v>
+        <v>622</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>640</v>
+        <v>623</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>641</v>
+        <v>624</v>
       </c>
       <c r="H22" s="7">
         <v>26</v>
@@ -7724,13 +7706,13 @@
         <v>23496</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>642</v>
+        <v>625</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>414</v>
+        <v>626</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="M22" s="7">
         <v>41</v>
@@ -7739,13 +7721,13 @@
         <v>41356</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>645</v>
+        <v>629</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7760,13 +7742,13 @@
         <v>14645</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>630</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>647</v>
+        <v>632</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -7775,13 +7757,13 @@
         <v>8761</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>648</v>
+        <v>92</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>529</v>
+        <v>633</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>649</v>
+        <v>634</v>
       </c>
       <c r="M23" s="7">
         <v>22</v>
@@ -7790,13 +7772,13 @@
         <v>23406</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>250</v>
+        <v>635</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>520</v>
+        <v>636</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7811,13 +7793,13 @@
         <v>26672</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="H24" s="7">
         <v>43</v>
@@ -7826,13 +7808,13 @@
         <v>33918</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>171</v>
+        <v>641</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>655</v>
+        <v>601</v>
       </c>
       <c r="M24" s="7">
         <v>67</v>
@@ -7841,13 +7823,13 @@
         <v>60591</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7862,13 +7844,13 @@
         <v>16744</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="H25" s="7">
         <v>25</v>
@@ -7877,13 +7859,13 @@
         <v>17265</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>661</v>
+        <v>416</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>663</v>
+        <v>111</v>
       </c>
       <c r="M25" s="7">
         <v>40</v>
@@ -7892,13 +7874,13 @@
         <v>34009</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>288</v>
+        <v>649</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7913,13 +7895,13 @@
         <v>5183</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -7928,13 +7910,13 @@
         <v>6056</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>669</v>
+        <v>655</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>670</v>
+        <v>656</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
       <c r="M26" s="7">
         <v>10</v>
@@ -7943,13 +7925,13 @@
         <v>11239</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>673</v>
+        <v>659</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>674</v>
+        <v>660</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8017,13 +7999,13 @@
         <v>51365</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>675</v>
+        <v>661</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>676</v>
+        <v>662</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>677</v>
+        <v>663</v>
       </c>
       <c r="H28" s="7">
         <v>47</v>
@@ -8032,13 +8014,13 @@
         <v>34799</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>678</v>
+        <v>664</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="M28" s="7">
         <v>95</v>
@@ -8047,13 +8029,13 @@
         <v>86164</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>681</v>
+        <v>667</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>682</v>
+        <v>668</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>683</v>
+        <v>669</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8068,13 +8050,13 @@
         <v>15012</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>684</v>
+        <v>670</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>155</v>
+        <v>672</v>
       </c>
       <c r="H29" s="7">
         <v>28</v>
@@ -8083,13 +8065,13 @@
         <v>19791</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="M29" s="7">
         <v>43</v>
@@ -8098,13 +8080,13 @@
         <v>34803</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8119,13 +8101,13 @@
         <v>21553</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="H30" s="7">
         <v>32</v>
@@ -8134,13 +8116,13 @@
         <v>22684</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>560</v>
+        <v>682</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
       <c r="M30" s="7">
         <v>53</v>
@@ -8149,13 +8131,13 @@
         <v>44237</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>479</v>
+        <v>684</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8170,13 +8152,13 @@
         <v>20601</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="H31" s="7">
         <v>15</v>
@@ -8185,13 +8167,13 @@
         <v>12784</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="M31" s="7">
         <v>34</v>
@@ -8200,13 +8182,13 @@
         <v>33385</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>497</v>
+        <v>693</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8221,13 +8203,13 @@
         <v>4554</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>612</v>
+        <v>698</v>
       </c>
       <c r="H32" s="7">
         <v>7</v>
@@ -8236,13 +8218,13 @@
         <v>5550</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>709</v>
+        <v>539</v>
       </c>
       <c r="M32" s="7">
         <v>12</v>
@@ -8251,13 +8233,13 @@
         <v>10104</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8325,13 +8307,13 @@
         <v>174536</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>642</v>
+        <v>705</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="H34" s="7">
         <v>132</v>
@@ -8340,13 +8322,13 @@
         <v>103109</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>266</v>
+        <v>708</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="M34" s="7">
         <v>240</v>
@@ -8355,13 +8337,13 @@
         <v>277645</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8376,13 +8358,13 @@
         <v>63052</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="H35" s="7">
         <v>76</v>
@@ -8391,13 +8373,13 @@
         <v>55211</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>196</v>
+        <v>716</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="M35" s="7">
         <v>132</v>
@@ -8406,13 +8388,13 @@
         <v>118263</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8427,13 +8409,13 @@
         <v>143628</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>654</v>
+        <v>722</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>556</v>
+        <v>191</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="H36" s="7">
         <v>169</v>
@@ -8442,13 +8424,13 @@
         <v>119714</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>292</v>
+        <v>726</v>
       </c>
       <c r="M36" s="7">
         <v>302</v>
@@ -8457,13 +8439,13 @@
         <v>263342</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8478,13 +8460,13 @@
         <v>89024</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>493</v>
+        <v>732</v>
       </c>
       <c r="H37" s="7">
         <v>95</v>
@@ -8493,13 +8475,13 @@
         <v>75985</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>736</v>
+        <v>192</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="M37" s="7">
         <v>174</v>
@@ -8508,13 +8490,13 @@
         <v>165010</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>738</v>
+        <v>204</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8529,13 +8511,13 @@
         <v>26674</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="H38" s="7">
         <v>38</v>
@@ -8544,13 +8526,13 @@
         <v>31967</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>744</v>
+        <v>435</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="M38" s="7">
         <v>58</v>
@@ -8559,13 +8541,13 @@
         <v>58642</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8621,7 +8603,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6702-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6702-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6406143C-D97F-4891-8D04-A943B1AB8634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BB42FFA-DA40-49FB-B868-B9BD41344BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{324A3CFD-EE84-41A7-8724-A2F0132BEADD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AC1215D7-5FD6-4AC2-B897-EBD4A60BCC42}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="748">
   <si>
     <t>Población según si la distribución de tareas es irregular y provoca que se le acumule el trabajo en 2012 (Tasa respuesta: 33,92%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -76,28 +76,28 @@
     <t>24,49%</t>
   </si>
   <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
   </si>
   <si>
     <t>26,7%</t>
   </si>
   <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
   </si>
   <si>
     <t>25,22%</t>
   </si>
   <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
@@ -109,2152 +109,2164 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>8,88%</t>
+    <t>9,81%</t>
   </si>
   <si>
     <t>34,89%</t>
   </si>
   <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>37,27%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si la distribución de tareas es irregular y provoca que se le acumule el trabajo en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>28,09%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>31,62%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>27,69%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>36,01%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>Población según si la distribución de tareas es irregular y provoca que se le acumule el trabajo en 2023 (Tasa respuesta: 10,36%)</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>55,33%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>49,55%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>42,05%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
     <t>16,12%</t>
   </si>
   <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>35,58%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>46,87%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
   </si>
   <si>
     <t>9,79%</t>
   </si>
   <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>28,53%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
   </si>
   <si>
     <t>28,06%</t>
   </si>
   <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>37,44%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>34,98%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>55,55%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>31,08%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
   </si>
   <si>
     <t>15,84%</t>
   </si>
   <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>36,92%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>35,84%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si la distribución de tareas es irregular y provoca que se le acumule el trabajo en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>54,79%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>43,12%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
-  </si>
-  <si>
-    <t>41,71%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
   </si>
   <si>
     <t>8,28%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>Población según si la distribución de tareas es irregular y provoca que se le acumule el trabajo en 2023 (Tasa respuesta: 10,36%)</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
   </si>
   <si>
     <t>5,84%</t>
@@ -2681,7 +2693,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C6AB79-9933-4157-8E3E-08BB44485FCC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E86E7BAB-70F6-4A89-B740-E3E6F04965C1}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3179,13 +3191,13 @@
         <v>29855</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>72</v>
@@ -3194,13 +3206,13 @@
         <v>78657</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3215,13 +3227,13 @@
         <v>59415</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>45</v>
@@ -3230,13 +3242,13 @@
         <v>48001</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>103</v>
@@ -3245,13 +3257,13 @@
         <v>107416</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,13 +3278,13 @@
         <v>50457</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -3281,13 +3293,13 @@
         <v>20534</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M13" s="7">
         <v>68</v>
@@ -3296,13 +3308,13 @@
         <v>70991</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3317,13 +3329,13 @@
         <v>16471</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -3332,13 +3344,13 @@
         <v>12175</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M14" s="7">
         <v>27</v>
@@ -3347,13 +3359,13 @@
         <v>28646</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>35</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3409,7 +3421,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3421,13 +3433,13 @@
         <v>75181</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>54</v>
@@ -3436,13 +3448,13 @@
         <v>59812</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>122</v>
@@ -3451,13 +3463,13 @@
         <v>134993</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3472,13 +3484,13 @@
         <v>53132</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H17" s="7">
         <v>37</v>
@@ -3487,13 +3499,13 @@
         <v>41545</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="M17" s="7">
         <v>86</v>
@@ -3502,13 +3514,13 @@
         <v>94677</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3523,13 +3535,13 @@
         <v>134531</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H18" s="7">
         <v>83</v>
@@ -3538,13 +3550,13 @@
         <v>90633</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="M18" s="7">
         <v>208</v>
@@ -3553,13 +3565,13 @@
         <v>225165</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3574,13 +3586,13 @@
         <v>89685</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H19" s="7">
         <v>45</v>
@@ -3589,13 +3601,13 @@
         <v>49709</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>138</v>
+        <v>49</v>
       </c>
       <c r="M19" s="7">
         <v>130</v>
@@ -3604,13 +3616,13 @@
         <v>139394</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>29</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,13 +3637,13 @@
         <v>55935</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H20" s="7">
         <v>27</v>
@@ -3640,13 +3652,13 @@
         <v>29861</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>74</v>
+        <v>142</v>
       </c>
       <c r="M20" s="7">
         <v>77</v>
@@ -3655,13 +3667,13 @@
         <v>85796</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3717,7 +3729,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3729,13 +3741,13 @@
         <v>41803</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H22" s="7">
         <v>42</v>
@@ -3744,13 +3756,13 @@
         <v>46288</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M22" s="7">
         <v>82</v>
@@ -3759,13 +3771,13 @@
         <v>88091</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3780,13 +3792,13 @@
         <v>47501</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>119</v>
+        <v>157</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H23" s="7">
         <v>25</v>
@@ -3795,13 +3807,13 @@
         <v>27476</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>65</v>
@@ -3810,13 +3822,13 @@
         <v>74977</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,13 +3843,13 @@
         <v>102657</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H24" s="7">
         <v>55</v>
@@ -3846,13 +3858,13 @@
         <v>60091</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M24" s="7">
         <v>147</v>
@@ -3861,13 +3873,13 @@
         <v>162749</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3882,13 +3894,13 @@
         <v>65021</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>177</v>
+        <v>73</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="H25" s="7">
         <v>34</v>
@@ -3897,13 +3909,13 @@
         <v>38945</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M25" s="7">
         <v>96</v>
@@ -3912,13 +3924,13 @@
         <v>103966</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,13 +3945,13 @@
         <v>65407</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H26" s="7">
         <v>35</v>
@@ -3948,13 +3960,13 @@
         <v>40340</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M26" s="7">
         <v>93</v>
@@ -3963,13 +3975,13 @@
         <v>105747</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4025,7 +4037,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4037,13 +4049,13 @@
         <v>75734</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>134</v>
+        <v>192</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H28" s="7">
         <v>70</v>
@@ -4052,13 +4064,13 @@
         <v>73683</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M28" s="7">
         <v>140</v>
@@ -4067,13 +4079,13 @@
         <v>149417</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,13 +4100,13 @@
         <v>62388</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H29" s="7">
         <v>42</v>
@@ -4103,13 +4115,13 @@
         <v>43060</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="M29" s="7">
         <v>103</v>
@@ -4118,13 +4130,13 @@
         <v>105448</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,13 +4151,13 @@
         <v>162348</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="H30" s="7">
         <v>101</v>
@@ -4154,13 +4166,13 @@
         <v>105098</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="M30" s="7">
         <v>259</v>
@@ -4169,13 +4181,13 @@
         <v>267446</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,13 +4202,13 @@
         <v>79974</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H31" s="7">
         <v>54</v>
@@ -4205,13 +4217,13 @@
         <v>59009</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M31" s="7">
         <v>132</v>
@@ -4220,13 +4232,13 @@
         <v>138983</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,13 +4253,13 @@
         <v>38245</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="H32" s="7">
         <v>21</v>
@@ -4256,13 +4268,13 @@
         <v>20652</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>232</v>
+        <v>51</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M32" s="7">
         <v>58</v>
@@ -4271,13 +4283,13 @@
         <v>58897</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,13 +4357,13 @@
         <v>247447</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>160</v>
+        <v>236</v>
       </c>
       <c r="H34" s="7">
         <v>194</v>
@@ -4360,13 +4372,13 @@
         <v>211094</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>196</v>
+        <v>237</v>
       </c>
       <c r="K34" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M34" s="7">
         <v>426</v>
@@ -4375,13 +4387,13 @@
         <v>458541</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,13 +4408,13 @@
         <v>212644</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H35" s="7">
         <v>139</v>
@@ -4417,7 +4429,7 @@
         <v>247</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>248</v>
+        <v>203</v>
       </c>
       <c r="M35" s="7">
         <v>334</v>
@@ -4426,10 +4438,10 @@
         <v>363369</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>250</v>
@@ -4555,7 +4567,7 @@
         <v>269</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>195</v>
+        <v>270</v>
       </c>
       <c r="H38" s="7">
         <v>96</v>
@@ -4564,13 +4576,13 @@
         <v>104240</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M38" s="7">
         <v>259</v>
@@ -4579,13 +4591,13 @@
         <v>282517</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4641,7 +4653,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -4662,7 +4674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12C8B45-5B40-44A7-AEEF-952CA89BD280}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37149C4-AEBF-454F-9B41-93FCC9447024}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4679,7 +4691,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4786,13 +4798,13 @@
         <v>7263</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -4801,13 +4813,13 @@
         <v>10631</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -4816,13 +4828,13 @@
         <v>17893</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>221</v>
+        <v>286</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,13 +4849,13 @@
         <v>7313</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -4852,13 +4864,13 @@
         <v>3773</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -4867,13 +4879,13 @@
         <v>11086</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4888,13 +4900,13 @@
         <v>12784</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -4903,13 +4915,13 @@
         <v>5298</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>297</v>
+        <v>241</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M6" s="7">
         <v>19</v>
@@ -4918,13 +4930,13 @@
         <v>18082</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4939,13 +4951,13 @@
         <v>10891</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -4954,13 +4966,13 @@
         <v>8555</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M7" s="7">
         <v>20</v>
@@ -4969,13 +4981,13 @@
         <v>19446</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4990,13 +5002,13 @@
         <v>5770</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>190</v>
+        <v>315</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -5005,13 +5017,13 @@
         <v>1635</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>262</v>
+        <v>317</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -5020,13 +5032,13 @@
         <v>7405</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>147</v>
+        <v>318</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5094,13 +5106,13 @@
         <v>34776</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>317</v>
+        <v>135</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>318</v>
+        <v>69</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -5109,13 +5121,13 @@
         <v>33826</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>321</v>
+        <v>252</v>
       </c>
       <c r="M10" s="7">
         <v>65</v>
@@ -5124,13 +5136,13 @@
         <v>68603</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>322</v>
+        <v>117</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>323</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>324</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5145,13 +5157,13 @@
         <v>35111</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="H11" s="7">
         <v>29</v>
@@ -5160,10 +5172,10 @@
         <v>27363</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>329</v>
@@ -5250,10 +5262,10 @@
         <v>342</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>224</v>
+        <v>343</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -5262,13 +5274,13 @@
         <v>23718</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
@@ -5277,13 +5289,13 @@
         <v>65375</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5298,13 +5310,13 @@
         <v>8157</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -5313,13 +5325,13 @@
         <v>6160</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -5328,13 +5340,13 @@
         <v>14317</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5390,7 +5402,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5402,13 +5414,13 @@
         <v>61084</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>163</v>
+        <v>361</v>
       </c>
       <c r="H16" s="7">
         <v>56</v>
@@ -5417,13 +5429,13 @@
         <v>57484</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M16" s="7">
         <v>108</v>
@@ -5432,13 +5444,13 @@
         <v>118567</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5453,13 +5465,13 @@
         <v>78985</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H17" s="7">
         <v>42</v>
@@ -5468,13 +5480,13 @@
         <v>42395</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="M17" s="7">
         <v>115</v>
@@ -5483,13 +5495,13 @@
         <v>121381</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>372</v>
+        <v>47</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5504,13 +5516,13 @@
         <v>151228</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="H18" s="7">
         <v>99</v>
@@ -5519,13 +5531,13 @@
         <v>101772</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M18" s="7">
         <v>236</v>
@@ -5534,13 +5546,13 @@
         <v>253000</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5555,13 +5567,13 @@
         <v>81512</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>246</v>
+        <v>386</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="H19" s="7">
         <v>50</v>
@@ -5570,13 +5582,13 @@
         <v>52789</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="M19" s="7">
         <v>123</v>
@@ -5585,13 +5597,13 @@
         <v>134301</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>389</v>
+        <v>363</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5606,13 +5618,13 @@
         <v>41232</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H20" s="7">
         <v>20</v>
@@ -5621,13 +5633,13 @@
         <v>19331</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M20" s="7">
         <v>57</v>
@@ -5636,13 +5648,13 @@
         <v>60563</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>398</v>
+        <v>358</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5698,7 +5710,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5710,13 +5722,13 @@
         <v>50241</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H22" s="7">
         <v>35</v>
@@ -5725,13 +5737,13 @@
         <v>35448</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>166</v>
+        <v>345</v>
       </c>
       <c r="M22" s="7">
         <v>80</v>
@@ -5740,13 +5752,13 @@
         <v>85690</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5761,13 +5773,13 @@
         <v>58578</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H23" s="7">
         <v>41</v>
@@ -5776,13 +5788,13 @@
         <v>42241</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="M23" s="7">
         <v>91</v>
@@ -5791,13 +5803,13 @@
         <v>100820</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>415</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>416</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5812,13 +5824,13 @@
         <v>99179</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="H24" s="7">
         <v>91</v>
@@ -5827,13 +5839,13 @@
         <v>90008</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="M24" s="7">
         <v>184</v>
@@ -5842,13 +5854,13 @@
         <v>189186</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5863,13 +5875,13 @@
         <v>105321</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="H25" s="7">
         <v>66</v>
@@ -5878,10 +5890,10 @@
         <v>70065</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>190</v>
+        <v>427</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>316</v>
+        <v>428</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>429</v>
@@ -5893,13 +5905,13 @@
         <v>175386</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>83</v>
+        <v>430</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>346</v>
+        <v>431</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5914,13 +5926,13 @@
         <v>50501</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="H26" s="7">
         <v>32</v>
@@ -5929,13 +5941,13 @@
         <v>32796</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="M26" s="7">
         <v>78</v>
@@ -5944,13 +5956,13 @@
         <v>83296</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6006,7 +6018,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6018,13 +6030,13 @@
         <v>79749</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>55</v>
+        <v>444</v>
       </c>
       <c r="H28" s="7">
         <v>61</v>
@@ -6033,13 +6045,13 @@
         <v>66847</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>410</v>
+        <v>445</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="M28" s="7">
         <v>136</v>
@@ -6048,13 +6060,13 @@
         <v>146596</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6069,13 +6081,13 @@
         <v>76786</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>184</v>
+        <v>452</v>
       </c>
       <c r="H29" s="7">
         <v>56</v>
@@ -6084,13 +6096,13 @@
         <v>57776</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="M29" s="7">
         <v>131</v>
@@ -6099,13 +6111,13 @@
         <v>134562</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>246</v>
+        <v>457</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6120,13 +6132,13 @@
         <v>133763</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="H30" s="7">
         <v>97</v>
@@ -6135,13 +6147,13 @@
         <v>101328</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="M30" s="7">
         <v>230</v>
@@ -6150,13 +6162,13 @@
         <v>235092</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6171,13 +6183,13 @@
         <v>68619</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="H31" s="7">
         <v>59</v>
@@ -6186,13 +6198,13 @@
         <v>62825</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>466</v>
+        <v>349</v>
       </c>
       <c r="M31" s="7">
         <v>127</v>
@@ -6201,13 +6213,13 @@
         <v>131444</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>134</v>
+        <v>192</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6222,13 +6234,13 @@
         <v>42254</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="H32" s="7">
         <v>34</v>
@@ -6237,13 +6249,13 @@
         <v>36698</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="M32" s="7">
         <v>76</v>
@@ -6252,13 +6264,13 @@
         <v>78952</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6326,13 +6338,13 @@
         <v>233113</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>260</v>
+        <v>485</v>
       </c>
       <c r="H34" s="7">
         <v>197</v>
@@ -6341,13 +6353,13 @@
         <v>204236</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>140</v>
+        <v>486</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>93</v>
+        <v>487</v>
       </c>
       <c r="M34" s="7">
         <v>407</v>
@@ -6356,13 +6368,13 @@
         <v>437349</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>482</v>
+        <v>361</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6377,13 +6389,13 @@
         <v>256773</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>320</v>
+        <v>490</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>120</v>
+        <v>492</v>
       </c>
       <c r="H35" s="7">
         <v>172</v>
@@ -6392,13 +6404,13 @@
         <v>173548</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="K35" s="7" t="s">
-        <v>485</v>
-      </c>
       <c r="L35" s="7" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="M35" s="7">
         <v>411</v>
@@ -6407,13 +6419,13 @@
         <v>430321</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>416</v>
+        <v>496</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6428,13 +6440,13 @@
         <v>476522</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="H36" s="7">
         <v>341</v>
@@ -6443,13 +6455,13 @@
         <v>344816</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="M36" s="7">
         <v>792</v>
@@ -6458,13 +6470,13 @@
         <v>821337</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>419</v>
+        <v>504</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6479,13 +6491,13 @@
         <v>308000</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="H37" s="7">
         <v>209</v>
@@ -6494,13 +6506,13 @@
         <v>217952</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>260</v>
+        <v>510</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>29</v>
+        <v>511</v>
       </c>
       <c r="M37" s="7">
         <v>494</v>
@@ -6509,13 +6521,13 @@
         <v>525952</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>265</v>
+        <v>513</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>502</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6530,13 +6542,13 @@
         <v>147914</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="H38" s="7">
         <v>94</v>
@@ -6545,13 +6557,13 @@
         <v>96620</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>472</v>
+        <v>519</v>
       </c>
       <c r="M38" s="7">
         <v>232</v>
@@ -6560,13 +6572,13 @@
         <v>244534</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6622,7 +6634,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -6643,7 +6655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C1E5EDB-AD10-4A82-BE9E-BBF42754D551}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B19831B-46D1-4E5D-B016-BAD927959CE9}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6660,7 +6672,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6767,13 +6779,13 @@
         <v>3470</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -6782,13 +6794,13 @@
         <v>5224</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -6797,13 +6809,13 @@
         <v>8694</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>518</v>
+        <v>464</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>519</v>
+        <v>530</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>520</v>
+        <v>531</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6818,13 +6830,13 @@
         <v>8846</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -6833,13 +6845,13 @@
         <v>1403</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>525</v>
+        <v>536</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>526</v>
+        <v>537</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -6848,13 +6860,13 @@
         <v>10249</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>527</v>
+        <v>538</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>529</v>
+        <v>540</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6869,13 +6881,13 @@
         <v>3069</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>530</v>
+        <v>541</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>532</v>
+        <v>543</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -6884,13 +6896,13 @@
         <v>971</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>533</v>
+        <v>544</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>534</v>
+        <v>545</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -6899,13 +6911,13 @@
         <v>4041</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>535</v>
+        <v>546</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>536</v>
+        <v>547</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>537</v>
+        <v>548</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6923,10 +6935,10 @@
         <v>22</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>539</v>
+        <v>177</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6938,10 +6950,10 @@
         <v>22</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>539</v>
+        <v>177</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6953,10 +6965,10 @@
         <v>22</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6974,10 +6986,10 @@
         <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>539</v>
+        <v>177</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -6986,13 +6998,13 @@
         <v>805</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>404</v>
+        <v>550</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -7001,13 +7013,13 @@
         <v>805</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>541</v>
+        <v>552</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>542</v>
+        <v>553</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7075,13 +7087,13 @@
         <v>20133</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>543</v>
+        <v>554</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>545</v>
+        <v>556</v>
       </c>
       <c r="H10" s="7">
         <v>24</v>
@@ -7090,13 +7102,13 @@
         <v>16704</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>546</v>
+        <v>557</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>547</v>
+        <v>558</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>548</v>
+        <v>559</v>
       </c>
       <c r="M10" s="7">
         <v>39</v>
@@ -7105,13 +7117,13 @@
         <v>36837</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>549</v>
+        <v>560</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>550</v>
+        <v>260</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7126,13 +7138,13 @@
         <v>10784</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
@@ -7141,13 +7153,13 @@
         <v>7124</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
@@ -7156,13 +7168,13 @@
         <v>17908</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>243</v>
+        <v>570</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7177,13 +7189,13 @@
         <v>20360</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>560</v>
+        <v>571</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>561</v>
+        <v>572</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>562</v>
+        <v>573</v>
       </c>
       <c r="H12" s="7">
         <v>33</v>
@@ -7192,13 +7204,13 @@
         <v>20533</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>565</v>
+        <v>576</v>
       </c>
       <c r="M12" s="7">
         <v>54</v>
@@ -7207,13 +7219,13 @@
         <v>40894</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>566</v>
+        <v>127</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7228,13 +7240,13 @@
         <v>17286</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -7243,13 +7255,13 @@
         <v>16631</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -7258,13 +7270,13 @@
         <v>33917</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7279,13 +7291,13 @@
         <v>5984</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>578</v>
+        <v>131</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -7294,13 +7306,13 @@
         <v>4355</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>580</v>
+        <v>351</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -7309,13 +7321,13 @@
         <v>10339</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7371,7 +7383,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7383,13 +7395,13 @@
         <v>81708</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>422</v>
+        <v>593</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>25</v>
+        <v>594</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -7398,13 +7410,13 @@
         <v>22887</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>586</v>
+        <v>266</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>99</v>
+        <v>596</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="M16" s="7">
         <v>56</v>
@@ -7413,13 +7425,13 @@
         <v>104595</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7434,13 +7446,13 @@
         <v>13765</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -7449,13 +7461,13 @@
         <v>18132</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="M17" s="7">
         <v>35</v>
@@ -7464,13 +7476,13 @@
         <v>31897</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7485,13 +7497,13 @@
         <v>71973</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="H18" s="7">
         <v>59</v>
@@ -7500,13 +7512,13 @@
         <v>41608</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="M18" s="7">
         <v>122</v>
@@ -7515,13 +7527,13 @@
         <v>113581</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7536,13 +7548,13 @@
         <v>34393</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>95</v>
+        <v>446</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H19" s="7">
         <v>37</v>
@@ -7551,13 +7563,13 @@
         <v>29305</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>609</v>
+        <v>452</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="M19" s="7">
         <v>68</v>
@@ -7566,13 +7578,13 @@
         <v>63698</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>614</v>
+        <v>623</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7587,13 +7599,13 @@
         <v>10953</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>615</v>
+        <v>624</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>165</v>
+        <v>626</v>
       </c>
       <c r="H20" s="7">
         <v>19</v>
@@ -7602,13 +7614,13 @@
         <v>15201</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>618</v>
+        <v>352</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="M20" s="7">
         <v>27</v>
@@ -7617,13 +7629,13 @@
         <v>26154</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>618</v>
+        <v>352</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7679,7 +7691,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7691,13 +7703,13 @@
         <v>17860</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>623</v>
+        <v>632</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>624</v>
+        <v>633</v>
       </c>
       <c r="H22" s="7">
         <v>26</v>
@@ -7706,13 +7718,13 @@
         <v>23496</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>626</v>
+        <v>635</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="M22" s="7">
         <v>41</v>
@@ -7721,13 +7733,13 @@
         <v>41356</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7742,13 +7754,13 @@
         <v>14645</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -7757,13 +7769,13 @@
         <v>8761</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>92</v>
+        <v>642</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>634</v>
+        <v>435</v>
       </c>
       <c r="M23" s="7">
         <v>22</v>
@@ -7772,13 +7784,13 @@
         <v>23406</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7793,13 +7805,13 @@
         <v>26672</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="H24" s="7">
         <v>43</v>
@@ -7808,13 +7820,13 @@
         <v>33918</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="M24" s="7">
         <v>67</v>
@@ -7823,13 +7835,13 @@
         <v>60591</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7844,13 +7856,13 @@
         <v>16744</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="H25" s="7">
         <v>25</v>
@@ -7859,13 +7871,13 @@
         <v>17265</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>416</v>
+        <v>657</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>111</v>
+        <v>659</v>
       </c>
       <c r="M25" s="7">
         <v>40</v>
@@ -7874,13 +7886,13 @@
         <v>34009</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>649</v>
+        <v>660</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>650</v>
+        <v>661</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>651</v>
+        <v>662</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7895,13 +7907,13 @@
         <v>5183</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>652</v>
+        <v>663</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>653</v>
+        <v>664</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>654</v>
+        <v>386</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -7910,13 +7922,13 @@
         <v>6056</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>655</v>
+        <v>665</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>656</v>
+        <v>666</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>657</v>
+        <v>667</v>
       </c>
       <c r="M26" s="7">
         <v>10</v>
@@ -7925,13 +7937,13 @@
         <v>11239</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>658</v>
+        <v>668</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>659</v>
+        <v>669</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>660</v>
+        <v>670</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7987,7 +7999,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -7999,13 +8011,13 @@
         <v>51365</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>661</v>
+        <v>671</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>662</v>
+        <v>672</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>663</v>
+        <v>673</v>
       </c>
       <c r="H28" s="7">
         <v>47</v>
@@ -8014,13 +8026,13 @@
         <v>34799</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>664</v>
+        <v>674</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>665</v>
+        <v>675</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>666</v>
+        <v>676</v>
       </c>
       <c r="M28" s="7">
         <v>95</v>
@@ -8029,13 +8041,13 @@
         <v>86164</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>668</v>
+        <v>678</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>669</v>
+        <v>679</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8050,13 +8062,13 @@
         <v>15012</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>671</v>
+        <v>681</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>672</v>
+        <v>682</v>
       </c>
       <c r="H29" s="7">
         <v>28</v>
@@ -8065,13 +8077,13 @@
         <v>19791</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>673</v>
+        <v>683</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>674</v>
+        <v>684</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
       <c r="M29" s="7">
         <v>43</v>
@@ -8080,13 +8092,13 @@
         <v>34803</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8101,13 +8113,13 @@
         <v>21553</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>679</v>
+        <v>689</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>454</v>
+        <v>691</v>
       </c>
       <c r="H30" s="7">
         <v>32</v>
@@ -8116,13 +8128,13 @@
         <v>22684</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>681</v>
+        <v>692</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>682</v>
+        <v>693</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>683</v>
+        <v>694</v>
       </c>
       <c r="M30" s="7">
         <v>53</v>
@@ -8131,13 +8143,13 @@
         <v>44237</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>684</v>
+        <v>695</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>685</v>
+        <v>696</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>686</v>
+        <v>697</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8152,13 +8164,13 @@
         <v>20601</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>687</v>
+        <v>161</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>688</v>
+        <v>522</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="H31" s="7">
         <v>15</v>
@@ -8167,13 +8179,13 @@
         <v>12784</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>690</v>
+        <v>154</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="M31" s="7">
         <v>34</v>
@@ -8182,13 +8194,13 @@
         <v>33385</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>693</v>
+        <v>443</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8203,13 +8215,13 @@
         <v>4554</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="H32" s="7">
         <v>7</v>
@@ -8218,13 +8230,13 @@
         <v>5550</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>539</v>
+        <v>177</v>
       </c>
       <c r="M32" s="7">
         <v>12</v>
@@ -8233,13 +8245,13 @@
         <v>10104</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8307,13 +8319,13 @@
         <v>174536</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="H34" s="7">
         <v>132</v>
@@ -8322,13 +8334,13 @@
         <v>103109</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="M34" s="7">
         <v>240</v>
@@ -8337,13 +8349,13 @@
         <v>277645</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8358,13 +8370,13 @@
         <v>63052</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="H35" s="7">
         <v>76</v>
@@ -8373,13 +8385,13 @@
         <v>55211</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>716</v>
+        <v>270</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="M35" s="7">
         <v>132</v>
@@ -8388,13 +8400,13 @@
         <v>118263</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>719</v>
+        <v>395</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>720</v>
+        <v>138</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8409,13 +8421,13 @@
         <v>143628</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="H36" s="7">
         <v>169</v>
@@ -8424,13 +8436,13 @@
         <v>119714</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="M36" s="7">
         <v>302</v>
@@ -8439,13 +8451,13 @@
         <v>263342</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8460,13 +8472,13 @@
         <v>89024</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="H37" s="7">
         <v>95</v>
@@ -8475,13 +8487,13 @@
         <v>75985</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>192</v>
+        <v>737</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>733</v>
+        <v>508</v>
       </c>
       <c r="M37" s="7">
         <v>174</v>
@@ -8490,13 +8502,13 @@
         <v>165010</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>734</v>
+        <v>235</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8511,13 +8523,13 @@
         <v>26674</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="H38" s="7">
         <v>38</v>
@@ -8526,13 +8538,13 @@
         <v>31967</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>435</v>
+        <v>742</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="M38" s="7">
         <v>58</v>
@@ -8541,13 +8553,13 @@
         <v>58642</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8603,7 +8615,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6702-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6702-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9BB42FFA-DA40-49FB-B868-B9BD41344BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35ECF98B-CF54-42DF-9F72-D0C463054921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AC1215D7-5FD6-4AC2-B897-EBD4A60BCC42}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{66BC296E-DABF-4629-BDE4-59C97813570E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="750">
   <si>
     <t>Población según si la distribución de tareas es irregular y provoca que se le acumule el trabajo en 2012 (Tasa respuesta: 33,92%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>24,49%</t>
   </si>
   <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
   </si>
   <si>
     <t>26,7%</t>
   </si>
   <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
   </si>
   <si>
     <t>25,22%</t>
   </si>
   <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
@@ -109,2179 +109,2185 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>9,81%</t>
+    <t>8,96%</t>
   </si>
   <si>
     <t>34,89%</t>
   </si>
   <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
   </si>
   <si>
     <t>12,49%</t>
   </si>
   <si>
-    <t>5,93%</t>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
   </si>
   <si>
     <t>22,09%</t>
   </si>
   <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>35,52%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
   </si>
   <si>
     <t>8,13%</t>
   </si>
   <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>42,94%</t>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>34,65%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>38,78%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si la distribución de tareas es irregular y provoca que se le acumule el trabajo en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>32,28%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>28,69%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>24,6%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>42,06%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>36,12%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>Población según si la distribución de tareas es irregular y provoca que se le acumule el trabajo en 2023 (Tasa respuesta: 10,36%)</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>57,5%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>34,34%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
   </si>
   <si>
     <t>31,59%</t>
   </si>
   <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>55,44%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
   </si>
   <si>
     <t>11,8%</t>
   </si>
   <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
   </si>
   <si>
     <t>26,9%</t>
   </si>
   <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>37,27%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>28,15%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>19,61%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>37,24%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si la distribución de tareas es irregular y provoca que se le acumule el trabajo en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>46,88%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>46,99%</t>
-  </si>
-  <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>43,26%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
+    <t>29,83%</t>
   </si>
   <si>
     <t>24,63%</t>
   </si>
   <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>36,01%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
   </si>
   <si>
     <t>18,69%</t>
   </si>
   <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>Población según si la distribución de tareas es irregular y provoca que se le acumule el trabajo en 2023 (Tasa respuesta: 10,36%)</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>55,33%</t>
-  </si>
-  <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>57,5%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>49,55%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>42,05%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>38,4%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>44,93%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>55,55%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>31,08%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
   </si>
   <si>
     <t>5,37%</t>
   </si>
   <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
   </si>
   <si>
     <t>8,28%</t>
   </si>
   <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
   </si>
   <si>
     <t>6,64%</t>
   </si>
   <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
   </si>
 </sst>
 </file>
@@ -2693,7 +2699,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E86E7BAB-70F6-4A89-B740-E3E6F04965C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3CA59E9-B192-411C-BC1B-26FF637355DE}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3191,13 +3197,13 @@
         <v>29855</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>72</v>
@@ -3206,10 +3212,10 @@
         <v>78657</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>77</v>
@@ -3257,13 +3263,13 @@
         <v>107416</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3278,13 +3284,13 @@
         <v>50457</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H13" s="7">
         <v>20</v>
@@ -3293,13 +3299,13 @@
         <v>20534</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M13" s="7">
         <v>68</v>
@@ -3308,13 +3314,13 @@
         <v>70991</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3329,13 +3335,13 @@
         <v>16471</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H14" s="7">
         <v>12</v>
@@ -3344,13 +3350,13 @@
         <v>12175</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M14" s="7">
         <v>27</v>
@@ -3359,13 +3365,13 @@
         <v>28646</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3421,7 +3427,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3433,13 +3439,13 @@
         <v>75181</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>54</v>
@@ -3448,13 +3454,13 @@
         <v>59812</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>122</v>
@@ -3463,13 +3469,13 @@
         <v>134993</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3484,13 +3490,13 @@
         <v>53132</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>37</v>
@@ -3499,13 +3505,13 @@
         <v>41545</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>86</v>
@@ -3514,13 +3520,13 @@
         <v>94677</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,13 +3541,13 @@
         <v>134531</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="H18" s="7">
         <v>83</v>
@@ -3550,13 +3556,13 @@
         <v>90633</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>208</v>
@@ -3565,13 +3571,13 @@
         <v>225165</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,13 +3592,13 @@
         <v>89685</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H19" s="7">
         <v>45</v>
@@ -3601,13 +3607,13 @@
         <v>49709</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>130</v>
@@ -3616,13 +3622,13 @@
         <v>139394</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,13 +3643,13 @@
         <v>55935</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
         <v>27</v>
@@ -3652,13 +3658,13 @@
         <v>29861</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="M20" s="7">
         <v>77</v>
@@ -3667,13 +3673,13 @@
         <v>85796</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3729,7 +3735,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3741,13 +3747,13 @@
         <v>41803</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="H22" s="7">
         <v>42</v>
@@ -3756,13 +3762,13 @@
         <v>46288</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
         <v>82</v>
@@ -3771,13 +3777,13 @@
         <v>88091</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3792,13 +3798,13 @@
         <v>47501</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>25</v>
@@ -3807,13 +3813,13 @@
         <v>27476</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="M23" s="7">
         <v>65</v>
@@ -3822,13 +3828,13 @@
         <v>74977</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,13 +3849,13 @@
         <v>102657</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H24" s="7">
         <v>55</v>
@@ -3858,13 +3864,13 @@
         <v>60091</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M24" s="7">
         <v>147</v>
@@ -3873,13 +3879,13 @@
         <v>162749</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3894,13 +3900,13 @@
         <v>65021</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>73</v>
+        <v>179</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="H25" s="7">
         <v>34</v>
@@ -3909,13 +3915,13 @@
         <v>38945</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>96</v>
@@ -3924,13 +3930,13 @@
         <v>103966</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3945,13 +3951,13 @@
         <v>65407</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>35</v>
@@ -3960,13 +3966,13 @@
         <v>40340</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>93</v>
@@ -3975,13 +3981,13 @@
         <v>105747</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,7 +4043,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4049,13 +4055,13 @@
         <v>75734</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H28" s="7">
         <v>70</v>
@@ -4064,13 +4070,13 @@
         <v>73683</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M28" s="7">
         <v>140</v>
@@ -4079,13 +4085,13 @@
         <v>149417</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4100,13 +4106,13 @@
         <v>62388</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="H29" s="7">
         <v>42</v>
@@ -4115,13 +4121,13 @@
         <v>43060</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>138</v>
+        <v>207</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="M29" s="7">
         <v>103</v>
@@ -4130,13 +4136,13 @@
         <v>105448</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4151,13 +4157,13 @@
         <v>162348</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="H30" s="7">
         <v>101</v>
@@ -4166,13 +4172,13 @@
         <v>105098</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M30" s="7">
         <v>259</v>
@@ -4181,13 +4187,13 @@
         <v>267446</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4202,13 +4208,13 @@
         <v>79974</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H31" s="7">
         <v>54</v>
@@ -4217,13 +4223,13 @@
         <v>59009</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M31" s="7">
         <v>132</v>
@@ -4232,13 +4238,13 @@
         <v>138983</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4253,13 +4259,13 @@
         <v>38245</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>44</v>
+        <v>232</v>
       </c>
       <c r="H32" s="7">
         <v>21</v>
@@ -4268,13 +4274,13 @@
         <v>20652</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>51</v>
+        <v>234</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="M32" s="7">
         <v>58</v>
@@ -4283,13 +4289,13 @@
         <v>58897</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4357,13 +4363,13 @@
         <v>247447</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="H34" s="7">
         <v>194</v>
@@ -4372,13 +4378,13 @@
         <v>211094</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="M34" s="7">
         <v>426</v>
@@ -4387,13 +4393,13 @@
         <v>458541</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4408,13 +4414,13 @@
         <v>212644</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H35" s="7">
         <v>139</v>
@@ -4423,13 +4429,13 @@
         <v>150724</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>203</v>
+        <v>251</v>
       </c>
       <c r="M35" s="7">
         <v>334</v>
@@ -4438,13 +4444,13 @@
         <v>363369</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4459,13 +4465,13 @@
         <v>486671</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="H36" s="7">
         <v>289</v>
@@ -4474,13 +4480,13 @@
         <v>309136</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="M36" s="7">
         <v>749</v>
@@ -4489,13 +4495,13 @@
         <v>795807</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>38</v>
+        <v>262</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4510,13 +4516,13 @@
         <v>293440</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="H37" s="7">
         <v>156</v>
@@ -4525,13 +4531,13 @@
         <v>171347</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="M37" s="7">
         <v>439</v>
@@ -4540,13 +4546,13 @@
         <v>464787</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4561,13 +4567,13 @@
         <v>178277</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="H38" s="7">
         <v>96</v>
@@ -4576,13 +4582,13 @@
         <v>104240</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="M38" s="7">
         <v>259</v>
@@ -4591,13 +4597,13 @@
         <v>282517</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4653,7 +4659,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -4674,7 +4680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E37149C4-AEBF-454F-9B41-93FCC9447024}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED9B797B-3873-4B7A-8ECA-4B985C02F5B0}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4691,7 +4697,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4798,13 +4804,13 @@
         <v>7263</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="H4" s="7">
         <v>11</v>
@@ -4813,13 +4819,13 @@
         <v>10631</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -4828,13 +4834,13 @@
         <v>17893</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4849,13 +4855,13 @@
         <v>7313</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -4864,13 +4870,13 @@
         <v>3773</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -4879,13 +4885,13 @@
         <v>11086</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4900,13 +4906,13 @@
         <v>12784</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -4915,13 +4921,13 @@
         <v>5298</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>241</v>
+        <v>304</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="M6" s="7">
         <v>19</v>
@@ -4930,13 +4936,13 @@
         <v>18082</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4951,13 +4957,13 @@
         <v>10891</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -4966,13 +4972,13 @@
         <v>8555</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="M7" s="7">
         <v>20</v>
@@ -4981,13 +4987,13 @@
         <v>19446</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5002,13 +5008,13 @@
         <v>5770</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>313</v>
+        <v>159</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
@@ -5017,13 +5023,13 @@
         <v>1635</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="M8" s="7">
         <v>7</v>
@@ -5032,13 +5038,13 @@
         <v>7405</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5106,13 +5112,13 @@
         <v>34776</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>135</v>
+        <v>326</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>65</v>
+        <v>327</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>69</v>
+        <v>328</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -5121,13 +5127,13 @@
         <v>33826</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>252</v>
+        <v>331</v>
       </c>
       <c r="M10" s="7">
         <v>65</v>
@@ -5136,13 +5142,13 @@
         <v>68603</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>117</v>
+        <v>332</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>17</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5157,13 +5163,13 @@
         <v>35111</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="H11" s="7">
         <v>29</v>
@@ -5172,13 +5178,13 @@
         <v>27363</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="M11" s="7">
         <v>63</v>
@@ -5187,13 +5193,13 @@
         <v>62474</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5208,13 +5214,13 @@
         <v>79568</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="H12" s="7">
         <v>48</v>
@@ -5223,13 +5229,13 @@
         <v>46410</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="M12" s="7">
         <v>123</v>
@@ -5238,13 +5244,13 @@
         <v>125978</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5259,13 +5265,13 @@
         <v>41657</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -5274,13 +5280,13 @@
         <v>23718</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
@@ -5289,13 +5295,13 @@
         <v>65375</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5310,13 +5316,13 @@
         <v>8157</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="H14" s="7">
         <v>6</v>
@@ -5325,13 +5331,13 @@
         <v>6160</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="M14" s="7">
         <v>14</v>
@@ -5340,13 +5346,13 @@
         <v>14317</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5402,7 +5408,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5414,13 +5420,13 @@
         <v>61084</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="H16" s="7">
         <v>56</v>
@@ -5429,13 +5435,13 @@
         <v>57484</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="M16" s="7">
         <v>108</v>
@@ -5444,13 +5450,13 @@
         <v>118567</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5465,13 +5471,13 @@
         <v>78985</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="H17" s="7">
         <v>42</v>
@@ -5480,13 +5486,13 @@
         <v>42395</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>371</v>
+        <v>150</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="M17" s="7">
         <v>115</v>
@@ -5495,13 +5501,13 @@
         <v>121381</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>47</v>
+        <v>385</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5516,13 +5522,13 @@
         <v>151228</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="H18" s="7">
         <v>99</v>
@@ -5531,13 +5537,13 @@
         <v>101772</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="M18" s="7">
         <v>236</v>
@@ -5546,13 +5552,13 @@
         <v>253000</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5567,13 +5573,13 @@
         <v>81512</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>387</v>
+        <v>337</v>
       </c>
       <c r="H19" s="7">
         <v>50</v>
@@ -5582,13 +5588,13 @@
         <v>52789</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="M19" s="7">
         <v>123</v>
@@ -5597,13 +5603,13 @@
         <v>134301</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5618,13 +5624,13 @@
         <v>41232</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="H20" s="7">
         <v>20</v>
@@ -5633,13 +5639,13 @@
         <v>19331</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="M20" s="7">
         <v>57</v>
@@ -5648,13 +5654,13 @@
         <v>60563</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>358</v>
+        <v>233</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5710,7 +5716,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5722,13 +5728,13 @@
         <v>50241</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="H22" s="7">
         <v>35</v>
@@ -5737,13 +5743,13 @@
         <v>35448</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>345</v>
+        <v>417</v>
       </c>
       <c r="M22" s="7">
         <v>80</v>
@@ -5752,13 +5758,13 @@
         <v>85690</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5773,13 +5779,13 @@
         <v>58578</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>409</v>
+        <v>192</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="H23" s="7">
         <v>41</v>
@@ -5788,13 +5794,13 @@
         <v>42241</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>373</v>
+        <v>425</v>
       </c>
       <c r="M23" s="7">
         <v>91</v>
@@ -5803,13 +5809,13 @@
         <v>100820</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>180</v>
+        <v>426</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>238</v>
+        <v>428</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5824,13 +5830,13 @@
         <v>99179</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>416</v>
+        <v>70</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="H24" s="7">
         <v>91</v>
@@ -5839,13 +5845,13 @@
         <v>90008</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="M24" s="7">
         <v>184</v>
@@ -5854,13 +5860,13 @@
         <v>189186</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>423</v>
+        <v>306</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5875,13 +5881,13 @@
         <v>105321</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="H25" s="7">
         <v>66</v>
@@ -5890,13 +5896,13 @@
         <v>70065</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="M25" s="7">
         <v>159</v>
@@ -5905,13 +5911,13 @@
         <v>175386</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5926,13 +5932,13 @@
         <v>50501</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="H26" s="7">
         <v>32</v>
@@ -5941,13 +5947,13 @@
         <v>32796</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="M26" s="7">
         <v>78</v>
@@ -5956,13 +5962,13 @@
         <v>83296</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6018,7 +6024,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6030,13 +6036,13 @@
         <v>79749</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="H28" s="7">
         <v>61</v>
@@ -6045,13 +6051,13 @@
         <v>66847</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="M28" s="7">
         <v>136</v>
@@ -6060,13 +6066,13 @@
         <v>146596</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>449</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6081,13 +6087,13 @@
         <v>76786</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="H29" s="7">
         <v>56</v>
@@ -6096,13 +6102,13 @@
         <v>57776</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>455</v>
+        <v>197</v>
       </c>
       <c r="M29" s="7">
         <v>131</v>
@@ -6111,13 +6117,13 @@
         <v>134562</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6132,13 +6138,13 @@
         <v>133763</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="H30" s="7">
         <v>97</v>
@@ -6147,13 +6153,13 @@
         <v>101328</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="M30" s="7">
         <v>230</v>
@@ -6162,13 +6168,13 @@
         <v>235092</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6183,13 +6189,13 @@
         <v>68619</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="H31" s="7">
         <v>59</v>
@@ -6198,13 +6204,13 @@
         <v>62825</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>349</v>
+        <v>481</v>
       </c>
       <c r="M31" s="7">
         <v>127</v>
@@ -6213,13 +6219,13 @@
         <v>131444</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6234,13 +6240,13 @@
         <v>42254</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>474</v>
+        <v>15</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>476</v>
+        <v>339</v>
       </c>
       <c r="H32" s="7">
         <v>34</v>
@@ -6249,13 +6255,13 @@
         <v>36698</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>479</v>
+        <v>118</v>
       </c>
       <c r="M32" s="7">
         <v>76</v>
@@ -6264,13 +6270,13 @@
         <v>78952</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>480</v>
+        <v>161</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>482</v>
+        <v>488</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6338,13 +6344,13 @@
         <v>233113</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="H34" s="7">
         <v>197</v>
@@ -6353,13 +6359,13 @@
         <v>204236</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="M34" s="7">
         <v>407</v>
@@ -6368,13 +6374,13 @@
         <v>437349</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>489</v>
+        <v>18</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>361</v>
+        <v>495</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6389,13 +6395,13 @@
         <v>256773</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="H35" s="7">
         <v>172</v>
@@ -6404,13 +6410,13 @@
         <v>173548</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>151</v>
+        <v>499</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>484</v>
+        <v>342</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="M35" s="7">
         <v>411</v>
@@ -6419,13 +6425,13 @@
         <v>430321</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>494</v>
+        <v>168</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6440,13 +6446,13 @@
         <v>476522</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="H36" s="7">
         <v>341</v>
@@ -6455,13 +6461,13 @@
         <v>344816</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="M36" s="7">
         <v>792</v>
@@ -6470,13 +6476,13 @@
         <v>821337</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6491,13 +6497,13 @@
         <v>308000</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="H37" s="7">
         <v>209</v>
@@ -6506,13 +6512,13 @@
         <v>217952</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>509</v>
+        <v>269</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="M37" s="7">
         <v>494</v>
@@ -6521,13 +6527,13 @@
         <v>525952</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>181</v>
+        <v>518</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6542,13 +6548,13 @@
         <v>147914</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>516</v>
+        <v>448</v>
       </c>
       <c r="H38" s="7">
         <v>94</v>
@@ -6557,13 +6563,13 @@
         <v>96620</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="M38" s="7">
         <v>232</v>
@@ -6572,13 +6578,13 @@
         <v>244534</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6634,7 +6640,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -6655,7 +6661,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B19831B-46D1-4E5D-B016-BAD927959CE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61D947F1-2F83-4333-8BE0-9DBD36410DF4}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6672,7 +6678,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6779,13 +6785,13 @@
         <v>3470</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -6794,13 +6800,13 @@
         <v>5224</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -6809,13 +6815,13 @@
         <v>8694</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>464</v>
+        <v>534</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6830,13 +6836,13 @@
         <v>8846</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -6845,13 +6851,13 @@
         <v>1403</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -6860,13 +6866,13 @@
         <v>10249</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6881,13 +6887,13 @@
         <v>3069</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>541</v>
+        <v>162</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -6896,13 +6902,13 @@
         <v>971</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>544</v>
+        <v>357</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="M6" s="7">
         <v>6</v>
@@ -6911,13 +6917,13 @@
         <v>4041</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>546</v>
+        <v>317</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6935,10 +6941,10 @@
         <v>22</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>177</v>
+        <v>552</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -6950,10 +6956,10 @@
         <v>22</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>177</v>
+        <v>552</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -6965,10 +6971,10 @@
         <v>22</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6986,10 +6992,10 @@
         <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>177</v>
+        <v>552</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -6998,13 +7004,13 @@
         <v>805</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -7013,13 +7019,13 @@
         <v>805</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7087,13 +7093,13 @@
         <v>20133</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>555</v>
+        <v>482</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="H10" s="7">
         <v>24</v>
@@ -7102,13 +7108,13 @@
         <v>16704</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="M10" s="7">
         <v>39</v>
@@ -7117,13 +7123,13 @@
         <v>36837</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>260</v>
+        <v>563</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>561</v>
+        <v>508</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7138,13 +7144,13 @@
         <v>10784</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>564</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>12</v>
@@ -7153,13 +7159,13 @@
         <v>7124</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M11" s="7">
         <v>22</v>
@@ -7168,13 +7174,13 @@
         <v>17908</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7189,13 +7195,13 @@
         <v>20360</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="H12" s="7">
         <v>33</v>
@@ -7204,13 +7210,13 @@
         <v>20533</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="M12" s="7">
         <v>54</v>
@@ -7219,13 +7225,13 @@
         <v>40894</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>127</v>
+        <v>578</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7240,13 +7246,13 @@
         <v>17286</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>112</v>
+        <v>328</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>313</v>
+        <v>581</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>579</v>
+        <v>174</v>
       </c>
       <c r="H13" s="7">
         <v>18</v>
@@ -7255,13 +7261,13 @@
         <v>16631</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="M13" s="7">
         <v>32</v>
@@ -7270,13 +7276,13 @@
         <v>33917</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7291,13 +7297,13 @@
         <v>5984</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>131</v>
+        <v>590</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -7306,13 +7312,13 @@
         <v>4355</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>351</v>
+        <v>592</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="M14" s="7">
         <v>8</v>
@@ -7321,13 +7327,13 @@
         <v>10339</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7383,7 +7389,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7395,13 +7401,13 @@
         <v>81708</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="H16" s="7">
         <v>29</v>
@@ -7410,13 +7416,13 @@
         <v>22887</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>266</v>
+        <v>600</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="M16" s="7">
         <v>56</v>
@@ -7425,13 +7431,13 @@
         <v>104595</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7446,13 +7452,13 @@
         <v>13765</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -7461,13 +7467,13 @@
         <v>18132</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>610</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="M17" s="7">
         <v>35</v>
@@ -7476,13 +7482,13 @@
         <v>31897</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7497,13 +7503,13 @@
         <v>71973</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>610</v>
+        <v>616</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="H18" s="7">
         <v>59</v>
@@ -7512,13 +7518,13 @@
         <v>41608</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="M18" s="7">
         <v>122</v>
@@ -7527,13 +7533,13 @@
         <v>113581</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>616</v>
+        <v>622</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>617</v>
+        <v>623</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7548,13 +7554,13 @@
         <v>34393</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>446</v>
+        <v>624</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>618</v>
+        <v>625</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>195</v>
+        <v>626</v>
       </c>
       <c r="H19" s="7">
         <v>37</v>
@@ -7563,13 +7569,13 @@
         <v>29305</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>452</v>
+        <v>627</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>619</v>
+        <v>628</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>620</v>
+        <v>629</v>
       </c>
       <c r="M19" s="7">
         <v>68</v>
@@ -7578,13 +7584,13 @@
         <v>63698</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>621</v>
+        <v>630</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>622</v>
+        <v>631</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>623</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7599,13 +7605,13 @@
         <v>10953</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="H20" s="7">
         <v>19</v>
@@ -7614,13 +7620,13 @@
         <v>15201</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>352</v>
+        <v>636</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="M20" s="7">
         <v>27</v>
@@ -7629,13 +7635,13 @@
         <v>26154</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>629</v>
+        <v>367</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>630</v>
+        <v>638</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7691,7 +7697,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7703,13 +7709,13 @@
         <v>17860</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="H22" s="7">
         <v>26</v>
@@ -7718,13 +7724,13 @@
         <v>23496</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>635</v>
+        <v>414</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="M22" s="7">
         <v>41</v>
@@ -7733,13 +7739,13 @@
         <v>41356</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7754,13 +7760,13 @@
         <v>14645</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>639</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="H23" s="7">
         <v>10</v>
@@ -7769,13 +7775,13 @@
         <v>8761</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>643</v>
+        <v>529</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>435</v>
+        <v>649</v>
       </c>
       <c r="M23" s="7">
         <v>22</v>
@@ -7784,13 +7790,13 @@
         <v>23406</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>644</v>
+        <v>250</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>645</v>
+        <v>520</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7805,13 +7811,13 @@
         <v>26672</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="H24" s="7">
         <v>43</v>
@@ -7820,13 +7826,13 @@
         <v>33918</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>650</v>
+        <v>171</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>611</v>
+        <v>655</v>
       </c>
       <c r="M24" s="7">
         <v>67</v>
@@ -7838,10 +7844,10 @@
         <v>81</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7856,13 +7862,13 @@
         <v>16744</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="H25" s="7">
         <v>25</v>
@@ -7871,13 +7877,13 @@
         <v>17265</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="M25" s="7">
         <v>40</v>
@@ -7886,13 +7892,13 @@
         <v>34009</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>660</v>
+        <v>288</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7907,13 +7913,13 @@
         <v>5183</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>386</v>
+        <v>668</v>
       </c>
       <c r="H26" s="7">
         <v>6</v>
@@ -7922,13 +7928,13 @@
         <v>6056</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="M26" s="7">
         <v>10</v>
@@ -7937,13 +7943,13 @@
         <v>11239</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7999,7 +8005,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8011,13 +8017,13 @@
         <v>51365</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="H28" s="7">
         <v>47</v>
@@ -8026,13 +8032,13 @@
         <v>34799</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="M28" s="7">
         <v>95</v>
@@ -8041,13 +8047,13 @@
         <v>86164</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8062,13 +8068,13 @@
         <v>15012</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>682</v>
+        <v>155</v>
       </c>
       <c r="H29" s="7">
         <v>28</v>
@@ -8077,13 +8083,13 @@
         <v>19791</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="M29" s="7">
         <v>43</v>
@@ -8092,13 +8098,13 @@
         <v>34803</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>687</v>
+        <v>674</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8113,13 +8119,13 @@
         <v>21553</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>691</v>
+        <v>442</v>
       </c>
       <c r="H30" s="7">
         <v>32</v>
@@ -8128,10 +8134,10 @@
         <v>22684</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>693</v>
+        <v>560</v>
       </c>
       <c r="L30" s="7" t="s">
         <v>694</v>
@@ -8143,13 +8149,13 @@
         <v>44237</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>695</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>696</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8164,13 +8170,13 @@
         <v>20601</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>161</v>
+        <v>697</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>522</v>
+        <v>698</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="H31" s="7">
         <v>15</v>
@@ -8179,13 +8185,13 @@
         <v>12784</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>154</v>
+        <v>700</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="M31" s="7">
         <v>34</v>
@@ -8194,13 +8200,13 @@
         <v>33385</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>443</v>
+        <v>497</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8215,13 +8221,13 @@
         <v>4554</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>705</v>
+        <v>612</v>
       </c>
       <c r="H32" s="7">
         <v>7</v>
@@ -8230,13 +8236,13 @@
         <v>5550</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>177</v>
+        <v>709</v>
       </c>
       <c r="M32" s="7">
         <v>12</v>
@@ -8245,13 +8251,13 @@
         <v>10104</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8319,13 +8325,13 @@
         <v>174536</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>712</v>
+        <v>642</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="H34" s="7">
         <v>132</v>
@@ -8334,10 +8340,10 @@
         <v>103109</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>715</v>
+        <v>266</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>716</v>
@@ -8385,7 +8391,7 @@
         <v>55211</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>270</v>
+        <v>196</v>
       </c>
       <c r="K35" s="7" t="s">
         <v>723</v>
@@ -8400,13 +8406,13 @@
         <v>118263</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>395</v>
+        <v>725</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>138</v>
+        <v>726</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8421,13 +8427,13 @@
         <v>143628</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>726</v>
+        <v>654</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>188</v>
+        <v>556</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="H36" s="7">
         <v>169</v>
@@ -8436,13 +8442,13 @@
         <v>119714</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>730</v>
+        <v>292</v>
       </c>
       <c r="M36" s="7">
         <v>302</v>
@@ -8478,7 +8484,7 @@
         <v>735</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>736</v>
+        <v>493</v>
       </c>
       <c r="H37" s="7">
         <v>95</v>
@@ -8487,13 +8493,13 @@
         <v>75985</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="K37" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>737</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>508</v>
       </c>
       <c r="M37" s="7">
         <v>174</v>
@@ -8502,13 +8508,13 @@
         <v>165010</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>510</v>
+        <v>738</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>235</v>
+        <v>739</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8523,13 +8529,13 @@
         <v>26674</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="H38" s="7">
         <v>38</v>
@@ -8538,13 +8544,13 @@
         <v>31967</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="M38" s="7">
         <v>58</v>
@@ -8553,13 +8559,13 @@
         <v>58642</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8615,7 +8621,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
